--- a/result/compare/midaslarge/result-large.xlsx
+++ b/result/compare/midaslarge/result-large.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\midaslarge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535BEED-F07F-7147-AA71-035B351D7EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B5A47-DC4B-48F0-9C88-095EFCECBF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -477,7 +475,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.16981132075471697</c:v>
+                  <c:v>0.20754716981132076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,7 +487,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.41428571428571431</c:v>
+                  <c:v>0.44285714285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,7 +542,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.30188679245283018</c:v>
+                  <c:v>0.35849056603773582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +609,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.32075471698113206</c:v>
+                  <c:v>0.43396226415094341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +621,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.54285714285714282</c:v>
+                  <c:v>0.58571428571428574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +676,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39622641509433965</c:v>
+                  <c:v>0.45283018867924529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,7 +688,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.61428571428571432</c:v>
+                  <c:v>0.65714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1128,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.76315789473684215</c:v>
+                  <c:v>0.73809523809523814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1140,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.41428571428571431</c:v>
+                  <c:v>0.44285714285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +1195,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.70370370370370372</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1262,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.69090909090909092</c:v>
+                  <c:v>0.640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,7 +1274,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.54285714285714282</c:v>
+                  <c:v>0.58571428571428574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,7 +1329,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.671875</c:v>
+                  <c:v>0.65714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,7 +1341,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.61428571428571432</c:v>
+                  <c:v>0.65714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8969862" y="3375269"/>
-          <a:ext cx="8072071" cy="4827465"/>
+          <a:off x="8286016" y="3209193"/>
+          <a:ext cx="7388225" cy="4586653"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3596,15 +3594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429833</xdr:colOff>
+      <xdr:colOff>420064</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>127033</xdr:rowOff>
+      <xdr:rowOff>102610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>312615</xdr:colOff>
+      <xdr:colOff>302846</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:rowOff>92808</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3621,15 +3619,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9564064" y="3839341"/>
-          <a:ext cx="5695474" cy="2725582"/>
+          <a:off x="8802064" y="3629302"/>
+          <a:ext cx="5216782" cy="2588814"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -3654,15 +3652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>420077</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>429846</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>168030</xdr:colOff>
+      <xdr:colOff>177799</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>52675</xdr:rowOff>
+      <xdr:rowOff>184560</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3679,15 +3677,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9554308" y="3839308"/>
-          <a:ext cx="5560645" cy="2661059"/>
+          <a:off x="8811846" y="3785577"/>
+          <a:ext cx="5081953" cy="2524291"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -4011,13 +4009,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4058,21 +4056,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <f>C3+F3</f>
@@ -4084,26 +4082,26 @@
       </c>
       <c r="I3">
         <f>C3/G3</f>
-        <v>0.41428571428571431</v>
+        <v>0.44285714285714284</v>
       </c>
       <c r="J3">
         <f>D3/H3</f>
-        <v>0.16981132075471697</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="K3">
         <f>I3</f>
-        <v>0.41428571428571431</v>
+        <v>0.44285714285714284</v>
       </c>
       <c r="L3">
         <f>C3/(C3+D3)</f>
-        <v>0.76315789473684215</v>
+        <v>0.73809523809523814</v>
       </c>
       <c r="M3">
         <f>(C3+E3)/(G3+H3)</f>
         <v>0.5934959349593496</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4111,10 +4109,10 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>32</v>
@@ -4133,7 +4131,7 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J6" si="3">D4/H4</f>
-        <v>0.30188679245283018</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" si="4">I4</f>
@@ -4141,28 +4139,28 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L6" si="5">C4/(C4+D4)</f>
-        <v>0.70370370370370372</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M5" si="6">(C4+E4)/(G4+H4)</f>
-        <v>0.6097560975609756</v>
+        <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -4174,40 +4172,40 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.54285714285714282</v>
+        <v>0.58571428571428574</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.32075471698113206</v>
+        <v>0.43396226415094341</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.54285714285714282</v>
+        <v>0.58571428571428574</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
-        <v>0.69090909090909092</v>
+        <v>0.640625</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
-        <v>0.60162601626016265</v>
+        <v>0.57723577235772361</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -4219,19 +4217,19 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.61428571428571432</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.39622641509433965</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.61428571428571432</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>0.671875</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="M6">
         <f>(C6+E6)/(G6+H6)</f>
